--- a/BugReport.xlsx
+++ b/BugReport.xlsx
@@ -31,7 +31,7 @@
     <t>Add to bag does not exist on this page.</t>
   </si>
   <si>
-    <t>Seek reference for bug in C:\Users\Korisnik005\Documents\Python files\PBI</t>
+    <t>Seek reference for bug in C:\Users\Korisnik005\Documents\Zadaca za git\PBI</t>
   </si>
 </sst>
 </file>
